--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/DanhMucLoaiDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/DanhMucLoaiDat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Desktop\file excell mau gia ASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089CCE6-BB41-4E58-8FDB-F818C7C6E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785B001-07C5-4FAA-8E3C-C27A9EF789A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mã loại đất</t>
   </si>
@@ -38,16 +38,19 @@
   <si>
     <t>đất test</t>
   </si>
+  <si>
+    <t>DANH MỤC LOẠI ĐẤT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,7 +58,22 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,15 +94,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,34 +412,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>